--- a/performance-assessment/CPU-GPU_Performance_Comparison.xlsx
+++ b/performance-assessment/CPU-GPU_Performance_Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\work-dominoes\prov-dominoes\performance-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2571D7-210E-44F9-BF35-CB3A4A32A5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661373-260F-4ED6-93C9-DF91CA56605F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{3D0E3E5A-E345-494B-B986-4F0B6756AB5D}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GPU!$D$193:$L$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
   <si>
     <t># Tweets</t>
   </si>
@@ -192,6 +191,18 @@
   </si>
   <si>
     <t>Speed Up                                   (CPUTime / GPUTime)</t>
+  </si>
+  <si>
+    <t>Best result</t>
+  </si>
+  <si>
+    <t>Worst result</t>
+  </si>
+  <si>
+    <t>AVG*</t>
+  </si>
+  <si>
+    <t>Average discarding best and worst results.</t>
   </si>
 </sst>
 </file>
@@ -720,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1020,6 +1031,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,7 +1046,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4987,7 +5004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(AgT)</c:v>
+                  <c:v>ADD(WGB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5050,19 +5067,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.8633333333333333</c:v>
+                  <c:v>46.436666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7733333333333334</c:v>
+                  <c:v>46.589999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.586666666666666</c:v>
+                  <c:v>46.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9033333333333333</c:v>
+                  <c:v>52.793333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.28</c:v>
+                  <c:v>67.426666666666662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,7 +5099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WAT)</c:v>
+                  <c:v>ADD(WAW)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5145,19 +5162,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.8833333333333329</c:v>
+                  <c:v>7.5766666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3633333333333342</c:v>
+                  <c:v>9.6066666666666674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7166666666666659</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.13</c:v>
+                  <c:v>9.5933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.086666666666668</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5169,15 +5186,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$159</c:f>
+              <c:f>GPU!$D$160</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WAW)</c:v>
+                  <c:v>ADD(WAT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5231,48 +5248,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$159:$L$159</c15:sqref>
+                    <c15:sqref>GPU!$E$160:$L$160</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$159:$I$159</c:f>
+              <c:f>GPU!$E$160:$I$160</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.5766666666666671</c:v>
+                  <c:v>5.8833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6066666666666674</c:v>
+                  <c:v>7.3633333333333342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1</c:v>
+                  <c:v>6.7166666666666659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5933333333333337</c:v>
+                  <c:v>7.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.74</c:v>
+                  <c:v>12.086666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AF78-489C-ADE0-DEE5F11ABA21}"/>
+              <c16:uniqueId val="{00000005-AF78-489C-ADE0-DEE5F11ABA21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="10"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$160</c:f>
+              <c:f>GPU!$D$161</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WGB)</c:v>
+                  <c:v>TRANSPOSE(P4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5326,48 +5343,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$160:$L$160</c15:sqref>
+                    <c15:sqref>GPU!$E$161:$L$161</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$160:$I$160</c:f>
+              <c:f>GPU!$E$161:$I$161</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>46.436666666666667</c:v>
+                  <c:v>1.7733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.589999999999996</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.98</c:v>
+                  <c:v>1.9566666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.793333333333329</c:v>
+                  <c:v>2.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.426666666666662</c:v>
+                  <c:v>1.9366666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AF78-489C-ADE0-DEE5F11ABA21}"/>
+              <c16:uniqueId val="{00000009-AF78-489C-ADE0-DEE5F11ABA21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
+          <c:idx val="0"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$161</c:f>
+              <c:f>GPU!$D$163</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COLUMN_TEXT(P7)</c:v>
+                  <c:v>ADD(AgT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5421,48 +5438,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$161:$L$161</c15:sqref>
+                    <c15:sqref>GPU!$E$163:$L$163</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$161:$I$161</c:f>
+              <c:f>GPU!$E$163:$I$163</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.079999999999998</c:v>
+                  <c:v>5.8633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.21</c:v>
+                  <c:v>5.7733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>5.586666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.8</c:v>
+                  <c:v>7.9033333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.276666666666664</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-AF78-489C-ADE0-DEE5F11ABA21}"/>
+              <c16:uniqueId val="{00000007-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="8"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$162</c:f>
+              <c:f>GPU!$D$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SORT_COLUMN_GROUP(P7)</c:v>
+                  <c:v>TRANSPOSE(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5516,48 +5533,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$162:$L$162</c15:sqref>
+                    <c15:sqref>GPU!$E$165:$L$165</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$162:$I$162</c:f>
+              <c:f>GPU!$E$165:$I$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.18666666666666668</c:v>
+                  <c:v>2.4233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>1.3133333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22</c:v>
+                  <c:v>2.3366666666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22333333333333336</c:v>
+                  <c:v>2.2033333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3066666666666667</c:v>
+                  <c:v>2.3166666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-AF78-489C-ADE0-DEE5F11ABA21}"/>
+              <c16:uniqueId val="{00000009-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="9"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$163</c:f>
+              <c:f>GPU!$D$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRANSPOSE(P4)</c:v>
+                  <c:v>COLUMN_TEXT(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5611,48 +5628,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$163:$L$163</c15:sqref>
+                    <c15:sqref>GPU!$E$166:$L$166</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$163:$I$163</c:f>
+              <c:f>GPU!$E$166:$I$166</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7733333333333334</c:v>
+                  <c:v>12.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>14.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9566666666666668</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2666666666666666</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9366666666666668</c:v>
+                  <c:v>35.276666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{0000000A-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="12"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$164</c:f>
+              <c:f>GPU!$D$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRANSPOSE(P7)</c:v>
+                  <c:v>TRIM(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5706,48 +5723,48 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$164:$L$164</c15:sqref>
+                    <c15:sqref>GPU!$E$167:$L$167</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$164:$I$164</c:f>
+              <c:f>GPU!$E$167:$I$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4233333333333333</c:v>
+                  <c:v>2.2166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3133333333333332</c:v>
+                  <c:v>2.3533333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3366666666666669</c:v>
+                  <c:v>1.7899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2033333333333331</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3166666666666664</c:v>
+                  <c:v>2.3566666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{0000000B-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="13"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$165</c:f>
+              <c:f>GPU!$D$168</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRIM(P7)</c:v>
+                  <c:v>SORT_COLUMN_GROUP(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5801,44 +5818,44 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$165:$L$165</c15:sqref>
+                    <c15:sqref>GPU!$E$168:$L$168</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$165:$I$165</c:f>
+              <c:f>GPU!$E$168:$I$168</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2166666666666668</c:v>
+                  <c:v>0.18666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3533333333333335</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7899999999999998</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.16</c:v>
+                  <c:v>0.22333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3566666666666669</c:v>
+                  <c:v>0.3066666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{0000000C-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
+          <c:idx val="5"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$166</c:f>
+              <c:f>GPU!$D$159</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5893,11 +5910,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$166:$L$166</c15:sqref>
+                    <c15:sqref>GPU!$E$159:$L$159</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$166:$I$166</c:f>
+              <c:f>GPU!$E$159:$I$159</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5921,16 +5938,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{00000004-AF78-489C-ADE0-DEE5F11ABA21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
+          <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$167</c:f>
+              <c:f>GPU!$D$162</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5985,11 +6002,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$167:$L$167</c15:sqref>
+                    <c15:sqref>GPU!$E$162:$L$162</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$167:$I$167</c:f>
+              <c:f>GPU!$E$162:$I$162</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6013,16 +6030,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{0000000A-AF78-489C-ADE0-DEE5F11ABA21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
+          <c:idx val="7"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$168</c:f>
+              <c:f>GPU!$D$164</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6077,11 +6094,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$168:$L$168</c15:sqref>
+                    <c15:sqref>GPU!$E$164:$L$164</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$E$168:$I$168</c:f>
+              <c:f>GPU!$E$164:$I$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6105,7 +6122,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-E3A1-4113-A2E9-E15BEF64D8D7}"/>
+              <c16:uniqueId val="{00000008-E3A1-4113-A2E9-E15BEF64D8D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6488,7 +6505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(AgT)</c:v>
+                  <c:v>ADD(WGB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6548,16 +6565,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.28</c:v>
+                  <c:v>67.426666666666662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6599999999999984</c:v>
+                  <c:v>78.470000000000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1199999999999992</c:v>
+                  <c:v>98.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.406666666666666</c:v>
+                  <c:v>127.01666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6577,7 +6594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WAT)</c:v>
+                  <c:v>ADD(WAW)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6637,16 +6654,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.086666666666668</c:v>
+                  <c:v>11.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.689999999999998</c:v>
+                  <c:v>28.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.273333333333333</c:v>
+                  <c:v>46.406666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.353333333333339</c:v>
+                  <c:v>70.223333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,15 +6675,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$159</c:f>
+              <c:f>GPU!$D$160</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WAW)</c:v>
+                  <c:v>ADD(WAT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6717,45 +6734,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$159:$L$159</c15:sqref>
+                    <c15:sqref>GPU!$E$160:$L$160</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$159:$L$159</c:f>
+              <c:f>GPU!$I$160:$L$160</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.74</c:v>
+                  <c:v>12.086666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.49</c:v>
+                  <c:v>24.689999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.406666666666666</c:v>
+                  <c:v>43.273333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.223333333333329</c:v>
+                  <c:v>74.353333333333339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000004-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$160</c:f>
+              <c:f>GPU!$D$161</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADD(WGB)</c:v>
+                  <c:v>TRANSPOSE(P4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6806,45 +6823,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$160:$L$160</c15:sqref>
+                    <c15:sqref>GPU!$E$161:$L$161</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$160:$L$160</c:f>
+              <c:f>GPU!$I$161:$L$161</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>67.426666666666662</c:v>
+                  <c:v>1.9366666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.470000000000013</c:v>
+                  <c:v>3.7266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.39</c:v>
+                  <c:v>4.6533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.01666666666665</c:v>
+                  <c:v>5.4766666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000005-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="11"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$161</c:f>
+              <c:f>GPU!$D$163</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COLUMN_TEXT(P7)</c:v>
+                  <c:v>ADD(AgT)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6895,45 +6912,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$161:$L$161</c15:sqref>
+                    <c15:sqref>GPU!$E$163:$L$163</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$161:$L$161</c:f>
+              <c:f>GPU!$I$163:$L$163</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35.276666666666664</c:v>
+                  <c:v>6.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.843333333333334</c:v>
+                  <c:v>8.6599999999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.65</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.263333333333328</c:v>
+                  <c:v>12.406666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{0000000A-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
+          <c:idx val="13"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$162</c:f>
+              <c:f>GPU!$D$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SORT_COLUMN_GROUP(P7)</c:v>
+                  <c:v>TRANSPOSE(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6984,45 +7001,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$162:$L$162</c15:sqref>
+                    <c15:sqref>GPU!$E$165:$L$165</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$162:$L$162</c:f>
+              <c:f>GPU!$I$165:$L$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.3066666666666667</c:v>
+                  <c:v>2.3166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31666666666666671</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2233333333333333</c:v>
+                  <c:v>2.5900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3133333333333333</c:v>
+                  <c:v>3.0433333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{0000000C-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$163</c:f>
+              <c:f>GPU!$D$166</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRANSPOSE(P4)</c:v>
+                  <c:v>COLUMN_TEXT(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7073,45 +7090,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$163:$L$163</c15:sqref>
+                    <c15:sqref>GPU!$E$166:$L$166</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$163:$L$163</c:f>
+              <c:f>GPU!$I$166:$L$166</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.9366666666666668</c:v>
+                  <c:v>35.276666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7266666666666666</c:v>
+                  <c:v>57.843333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6533333333333333</c:v>
+                  <c:v>44.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4766666666666666</c:v>
+                  <c:v>60.263333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000006-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
+          <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$164</c:f>
+              <c:f>GPU!$D$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRANSPOSE(P7)</c:v>
+                  <c:v>TRIM(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7162,45 +7179,45 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$164:$L$164</c15:sqref>
+                    <c15:sqref>GPU!$E$167:$L$167</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$164:$L$164</c:f>
+              <c:f>GPU!$I$167:$L$167</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3166666666666664</c:v>
+                  <c:v>2.3566666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.36</c:v>
+                  <c:v>2.9866666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5900000000000003</c:v>
+                  <c:v>2.7066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0433333333333334</c:v>
+                  <c:v>3.6233333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000007-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="13"/>
+          <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$165</c:f>
+              <c:f>GPU!$D$168</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TRIM(P7)</c:v>
+                  <c:v>SORT_COLUMN_GROUP(P7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7251,41 +7268,41 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$165:$L$165</c15:sqref>
+                    <c15:sqref>GPU!$E$168:$L$168</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$165:$L$165</c:f>
+              <c:f>GPU!$I$168:$L$168</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3566666666666669</c:v>
+                  <c:v>0.3066666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9866666666666668</c:v>
+                  <c:v>0.31666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7066666666666666</c:v>
+                  <c:v>0.2233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6233333333333331</c:v>
+                  <c:v>0.3133333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000008-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="4"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$166</c:f>
+              <c:f>GPU!$D$159</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7337,11 +7354,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$166:$L$166</c15:sqref>
+                    <c15:sqref>GPU!$E$159:$L$159</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$166:$L$166</c:f>
+              <c:f>GPU!$I$159:$L$159</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7362,16 +7379,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000003-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="10"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$167</c:f>
+              <c:f>GPU!$D$162</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7423,11 +7440,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$167:$L$167</c15:sqref>
+                    <c15:sqref>GPU!$E$162:$L$162</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$167:$L$167</c:f>
+              <c:f>GPU!$I$162:$L$162</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7448,16 +7465,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{00000009-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
+          <c:idx val="12"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPU!$D$168</c:f>
+              <c:f>GPU!$D$164</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7509,11 +7526,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>GPU!$E$168:$L$168</c15:sqref>
+                    <c15:sqref>GPU!$E$164:$L$164</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>GPU!$I$168:$L$168</c:f>
+              <c:f>GPU!$I$164:$L$164</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7534,7 +7551,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E055-48B9-97E3-5A2647AC19E4}"/>
+              <c16:uniqueId val="{0000000B-E055-48B9-97E3-5A2647AC19E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10954,7 +10971,7 @@
   <dimension ref="C2:I43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10991,9 +11008,11 @@
         <v>100</v>
       </c>
       <c r="D4" s="95">
+        <f>CPU!E169</f>
         <v>795.35666666666668</v>
       </c>
       <c r="E4" s="95">
+        <f>GPU!E169</f>
         <v>919.23333333333323</v>
       </c>
       <c r="F4" s="93">
@@ -11009,9 +11028,11 @@
         <v>200</v>
       </c>
       <c r="D5" s="95">
+        <f>CPU!F169</f>
         <v>1007.5099999999999</v>
       </c>
       <c r="E5" s="95">
+        <f>GPU!F169</f>
         <v>956.53333333333353</v>
       </c>
       <c r="F5" s="93">
@@ -11027,9 +11048,11 @@
         <v>300</v>
       </c>
       <c r="D6" s="95">
+        <f>CPU!G169</f>
         <v>1328.6533333333332</v>
       </c>
       <c r="E6" s="95">
+        <f>GPU!G169</f>
         <v>1056.6433333333334</v>
       </c>
       <c r="F6" s="93">
@@ -11045,9 +11068,11 @@
         <v>500</v>
       </c>
       <c r="D7" s="95">
+        <f>CPU!H169</f>
         <v>2627.98</v>
       </c>
       <c r="E7" s="95">
+        <f>GPU!H169</f>
         <v>1122.3200000000002</v>
       </c>
       <c r="F7" s="93">
@@ -11063,9 +11088,11 @@
         <v>1000</v>
       </c>
       <c r="D8" s="95">
+        <f>CPU!I169</f>
         <v>14549.103333333331</v>
       </c>
       <c r="E8" s="95">
+        <f>GPU!I169</f>
         <v>1610.7399999999996</v>
       </c>
       <c r="F8" s="93">
@@ -11081,9 +11108,11 @@
         <v>2000</v>
       </c>
       <c r="D9" s="95">
+        <f>CPU!J169</f>
         <v>102623.19666666668</v>
       </c>
       <c r="E9" s="95">
+        <f>GPU!J169</f>
         <v>2407.936666666666</v>
       </c>
       <c r="F9" s="93">
@@ -11099,9 +11128,11 @@
         <v>3000</v>
       </c>
       <c r="D10" s="95">
+        <f>CPU!K169</f>
         <v>272544.37666666671</v>
       </c>
       <c r="E10" s="95">
+        <f>GPU!K169</f>
         <v>3375.4566666666669</v>
       </c>
       <c r="F10" s="93">
@@ -11117,9 +11148,11 @@
         <v>4176</v>
       </c>
       <c r="D11" s="100">
+        <f>CPU!L169</f>
         <v>674631.4833333334</v>
       </c>
       <c r="E11" s="100">
+        <f>GPU!L169</f>
         <v>5373.5133333333324</v>
       </c>
       <c r="F11" s="94">
@@ -11177,8 +11210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB247DE-C31B-4E8D-AD84-B87C7CD93577}">
   <dimension ref="D2:S181"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O212" sqref="O212"/>
+    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11186,25 +11219,32 @@
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="101" t="s">
+    <row r="2" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="106"/>
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
@@ -11226,8 +11266,12 @@
       <c r="J4" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="107"/>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
@@ -11250,8 +11294,14 @@
         <f>AVERAGE(F5,G5,H5)</f>
         <v>680.93333333333339</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
@@ -11275,7 +11325,7 @@
         <v>42.733333333333327</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11299,7 +11349,7 @@
         <v>7.0933333333333337</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -11323,7 +11373,7 @@
         <v>20.463333333333335</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -11347,7 +11397,7 @@
         <v>6.4766666666666666</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -11371,7 +11421,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -11395,7 +11445,7 @@
         <v>23.146666666666665</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -11419,7 +11469,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -11443,7 +11493,7 @@
         <v>0.75666666666666671</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -11467,7 +11517,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -11491,7 +11541,7 @@
         <v>6.4033333333333333</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -11635,14 +11685,17 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
@@ -12075,14 +12128,17 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="104"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="3" t="s">
@@ -12515,14 +12571,17 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="3" t="s">
@@ -12955,14 +13014,17 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="101" t="s">
+      <c r="D79" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="80" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="3" t="s">
@@ -13395,14 +13457,17 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="104"/>
+      <c r="J98" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="3" t="s">
@@ -13835,14 +13900,17 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="101" t="s">
+      <c r="D117" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="102"/>
-      <c r="F117" s="102"/>
-      <c r="G117" s="102"/>
-      <c r="H117" s="102"/>
-      <c r="I117" s="103"/>
+      <c r="E117" s="103"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="104"/>
+      <c r="J117" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="118" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="3" t="s">
@@ -14275,14 +14343,17 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="101" t="s">
+      <c r="D136" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E136" s="102"/>
-      <c r="F136" s="102"/>
-      <c r="G136" s="102"/>
-      <c r="H136" s="102"/>
-      <c r="I136" s="103"/>
+      <c r="E136" s="103"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="103"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="104"/>
+      <c r="J136" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="137" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="3" t="s">
@@ -15514,40 +15585,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF54308-B881-43FE-A421-CF508D0E35E7}">
   <dimension ref="D2:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="N213" sqref="N213"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="101" t="s">
+    <row r="2" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="106"/>
+      <c r="M3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
@@ -15569,8 +15641,12 @@
       <c r="J4" s="40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="107"/>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
@@ -15593,8 +15669,14 @@
         <f>AVERAGE(F5,G5,H5)</f>
         <v>714.30333333333328</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
@@ -15618,7 +15700,7 @@
         <v>46.436666666666667</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
@@ -15642,7 +15724,7 @@
         <v>7.5766666666666671</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
@@ -15666,7 +15748,7 @@
         <v>103.77666666666666</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
@@ -15690,7 +15772,7 @@
         <v>5.8833333333333329</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
@@ -15714,7 +15796,7 @@
         <v>1.7733333333333334</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
@@ -15738,7 +15820,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
@@ -15762,7 +15844,7 @@
         <v>5.8633333333333333</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
@@ -15786,7 +15868,7 @@
         <v>8.4033333333333342</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
@@ -15810,7 +15892,7 @@
         <v>2.4233333333333333</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
@@ -15834,7 +15916,7 @@
         <v>12.079999999999998</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
@@ -15978,14 +16060,17 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
@@ -16418,14 +16503,17 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="104"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="3" t="s">
@@ -16858,14 +16946,17 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="3" t="s">
@@ -17298,14 +17389,17 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="101" t="s">
+      <c r="D79" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="102"/>
-      <c r="I79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="103"/>
+      <c r="I79" s="104"/>
+      <c r="J79" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="80" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="3" t="s">
@@ -17738,14 +17832,17 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="101" t="s">
+      <c r="D98" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="104"/>
+      <c r="J98" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="3" t="s">
@@ -18178,14 +18275,17 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="101" t="s">
+      <c r="D117" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="102"/>
-      <c r="F117" s="102"/>
-      <c r="G117" s="102"/>
-      <c r="H117" s="102"/>
-      <c r="I117" s="103"/>
+      <c r="E117" s="103"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="103"/>
+      <c r="H117" s="103"/>
+      <c r="I117" s="104"/>
+      <c r="J117" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="118" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="3" t="s">
@@ -18618,14 +18718,17 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="101" t="s">
+      <c r="D136" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E136" s="102"/>
-      <c r="F136" s="102"/>
-      <c r="G136" s="102"/>
-      <c r="H136" s="102"/>
-      <c r="I136" s="103"/>
+      <c r="E136" s="103"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="103"/>
+      <c r="H136" s="103"/>
+      <c r="I136" s="104"/>
+      <c r="J136" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="137" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="3" t="s">
@@ -19080,380 +19183,484 @@
       </c>
     </row>
     <row r="156" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D156" s="72" t="s">
+      <c r="D156" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E156" s="68">
+        <f>J5</f>
         <v>714.30333333333328</v>
       </c>
       <c r="F156" s="64">
+        <f>J24</f>
         <v>743.43333333333339</v>
       </c>
       <c r="G156" s="64">
+        <f>J43</f>
         <v>842.67000000000007</v>
       </c>
       <c r="H156" s="64">
+        <f>J62</f>
         <v>894.21999999999991</v>
       </c>
       <c r="I156" s="64">
+        <f>J81</f>
         <v>1344.1999999999998</v>
       </c>
       <c r="J156" s="64">
+        <f>J100</f>
         <v>2059.3633333333332</v>
       </c>
       <c r="K156" s="64">
+        <f>J119</f>
         <v>2976.3166666666671</v>
       </c>
       <c r="L156" s="49">
+        <f>J138</f>
         <v>4852.13</v>
       </c>
     </row>
     <row r="157" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D157" s="71" t="s">
-        <v>43</v>
+      <c r="D157" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="E157" s="68">
-        <v>5.8633333333333333</v>
+        <f t="shared" ref="E157:E168" si="32">J6</f>
+        <v>46.436666666666667</v>
       </c>
       <c r="F157" s="64">
-        <v>5.7733333333333334</v>
+        <f t="shared" ref="F157:F168" si="33">J25</f>
+        <v>46.589999999999996</v>
       </c>
       <c r="G157" s="64">
-        <v>5.586666666666666</v>
+        <f t="shared" ref="G157:G168" si="34">J44</f>
+        <v>46.98</v>
       </c>
       <c r="H157" s="64">
-        <v>7.9033333333333333</v>
+        <f t="shared" ref="H157:H168" si="35">J63</f>
+        <v>52.793333333333329</v>
       </c>
       <c r="I157" s="64">
-        <v>6.28</v>
+        <f t="shared" ref="I157:I168" si="36">J82</f>
+        <v>67.426666666666662</v>
       </c>
       <c r="J157" s="64">
-        <v>8.6599999999999984</v>
+        <f t="shared" ref="J157:J168" si="37">J101</f>
+        <v>78.470000000000013</v>
       </c>
       <c r="K157" s="64">
-        <v>8.1199999999999992</v>
+        <f t="shared" ref="K157:K168" si="38">J120</f>
+        <v>98.39</v>
       </c>
       <c r="L157" s="49">
-        <v>12.406666666666666</v>
+        <f t="shared" ref="L157:L168" si="39">J139</f>
+        <v>127.01666666666665</v>
       </c>
     </row>
     <row r="158" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D158" s="72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E158" s="68">
-        <v>5.8833333333333329</v>
+        <f t="shared" si="32"/>
+        <v>7.5766666666666671</v>
       </c>
       <c r="F158" s="64">
-        <v>7.3633333333333342</v>
+        <f t="shared" si="33"/>
+        <v>9.6066666666666674</v>
       </c>
       <c r="G158" s="64">
-        <v>6.7166666666666659</v>
+        <f t="shared" si="34"/>
+        <v>9.1</v>
       </c>
       <c r="H158" s="64">
-        <v>7.13</v>
+        <f t="shared" si="35"/>
+        <v>9.5933333333333337</v>
       </c>
       <c r="I158" s="64">
-        <v>12.086666666666668</v>
+        <f t="shared" si="36"/>
+        <v>11.74</v>
       </c>
       <c r="J158" s="64">
-        <v>24.689999999999998</v>
+        <f t="shared" si="37"/>
+        <v>28.49</v>
       </c>
       <c r="K158" s="64">
-        <v>43.273333333333333</v>
+        <f t="shared" si="38"/>
+        <v>46.406666666666666</v>
       </c>
       <c r="L158" s="49">
-        <v>74.353333333333339</v>
+        <f t="shared" si="39"/>
+        <v>70.223333333333329</v>
       </c>
     </row>
     <row r="159" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D159" s="72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E159" s="68">
-        <v>7.5766666666666671</v>
+        <f t="shared" si="32"/>
+        <v>103.77666666666666</v>
       </c>
       <c r="F159" s="64">
-        <v>9.6066666666666674</v>
+        <f t="shared" si="33"/>
+        <v>107.98</v>
       </c>
       <c r="G159" s="64">
-        <v>9.1</v>
+        <f t="shared" si="34"/>
+        <v>104.46</v>
       </c>
       <c r="H159" s="64">
-        <v>9.5933333333333337</v>
+        <f t="shared" si="35"/>
+        <v>102.30333333333333</v>
       </c>
       <c r="I159" s="64">
-        <v>11.74</v>
+        <f t="shared" si="36"/>
+        <v>108.69</v>
       </c>
       <c r="J159" s="64">
-        <v>28.49</v>
+        <f t="shared" si="37"/>
+        <v>118.69666666666667</v>
       </c>
       <c r="K159" s="64">
-        <v>46.406666666666666</v>
+        <f t="shared" si="38"/>
+        <v>121.38333333333334</v>
       </c>
       <c r="L159" s="49">
-        <v>70.223333333333329</v>
+        <f t="shared" si="39"/>
+        <v>133.55000000000001</v>
       </c>
     </row>
     <row r="160" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D160" s="72" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E160" s="68">
-        <v>46.436666666666667</v>
+        <f t="shared" si="32"/>
+        <v>5.8833333333333329</v>
       </c>
       <c r="F160" s="64">
-        <v>46.589999999999996</v>
+        <f t="shared" si="33"/>
+        <v>7.3633333333333342</v>
       </c>
       <c r="G160" s="64">
-        <v>46.98</v>
+        <f t="shared" si="34"/>
+        <v>6.7166666666666659</v>
       </c>
       <c r="H160" s="64">
-        <v>52.793333333333329</v>
+        <f t="shared" si="35"/>
+        <v>7.13</v>
       </c>
       <c r="I160" s="64">
-        <v>67.426666666666662</v>
+        <f t="shared" si="36"/>
+        <v>12.086666666666668</v>
       </c>
       <c r="J160" s="64">
-        <v>78.470000000000013</v>
+        <f t="shared" si="37"/>
+        <v>24.689999999999998</v>
       </c>
       <c r="K160" s="64">
-        <v>98.39</v>
+        <f t="shared" si="38"/>
+        <v>43.273333333333333</v>
       </c>
       <c r="L160" s="49">
-        <v>127.01666666666665</v>
+        <f t="shared" si="39"/>
+        <v>74.353333333333339</v>
       </c>
     </row>
     <row r="161" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D161" s="72" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E161" s="68">
-        <v>12.079999999999998</v>
+        <f t="shared" si="32"/>
+        <v>1.7733333333333334</v>
       </c>
       <c r="F161" s="64">
-        <v>14.21</v>
+        <f t="shared" si="33"/>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G161" s="64">
-        <v>19</v>
+        <f t="shared" si="34"/>
+        <v>1.9566666666666668</v>
       </c>
       <c r="H161" s="64">
-        <v>22.8</v>
+        <f t="shared" si="35"/>
+        <v>2.2666666666666666</v>
       </c>
       <c r="I161" s="64">
-        <v>35.276666666666664</v>
+        <f t="shared" si="36"/>
+        <v>1.9366666666666668</v>
       </c>
       <c r="J161" s="64">
-        <v>57.843333333333334</v>
+        <f t="shared" si="37"/>
+        <v>3.7266666666666666</v>
       </c>
       <c r="K161" s="64">
-        <v>44.65</v>
+        <f t="shared" si="38"/>
+        <v>4.6533333333333333</v>
       </c>
       <c r="L161" s="49">
-        <v>60.263333333333328</v>
+        <f t="shared" si="39"/>
+        <v>5.4766666666666666</v>
       </c>
     </row>
     <row r="162" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D162" s="72" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E162" s="68">
-        <v>0.18666666666666668</v>
+        <f t="shared" si="32"/>
+        <v>8.31</v>
       </c>
       <c r="F162" s="64">
-        <v>0.26</v>
+        <f t="shared" si="33"/>
+        <v>8.1766666666666676</v>
       </c>
       <c r="G162" s="64">
-        <v>0.22</v>
+        <f t="shared" si="34"/>
+        <v>7.9799999999999995</v>
       </c>
       <c r="H162" s="64">
-        <v>0.22333333333333336</v>
+        <f t="shared" si="35"/>
+        <v>9.5199999999999978</v>
       </c>
       <c r="I162" s="64">
-        <v>0.3066666666666667</v>
+        <f t="shared" si="36"/>
+        <v>10.753333333333332</v>
       </c>
       <c r="J162" s="64">
-        <v>0.31666666666666671</v>
+        <f t="shared" si="37"/>
+        <v>14.123333333333335</v>
       </c>
       <c r="K162" s="64">
-        <v>0.2233333333333333</v>
+        <f t="shared" si="38"/>
+        <v>17.596666666666668</v>
       </c>
       <c r="L162" s="49">
-        <v>0.3133333333333333</v>
+        <f t="shared" si="39"/>
+        <v>22.2</v>
       </c>
     </row>
     <row r="163" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D163" s="72" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E163" s="68">
-        <v>1.7733333333333334</v>
+        <f t="shared" si="32"/>
+        <v>5.8633333333333333</v>
       </c>
       <c r="F163" s="64">
-        <v>2.2200000000000002</v>
+        <f t="shared" si="33"/>
+        <v>5.7733333333333334</v>
       </c>
       <c r="G163" s="64">
-        <v>1.9566666666666668</v>
+        <f t="shared" si="34"/>
+        <v>5.586666666666666</v>
       </c>
       <c r="H163" s="64">
-        <v>2.2666666666666666</v>
+        <f t="shared" si="35"/>
+        <v>7.9033333333333333</v>
       </c>
       <c r="I163" s="64">
-        <v>1.9366666666666668</v>
+        <f t="shared" si="36"/>
+        <v>6.28</v>
       </c>
       <c r="J163" s="64">
-        <v>3.7266666666666666</v>
+        <f t="shared" si="37"/>
+        <v>8.6599999999999984</v>
       </c>
       <c r="K163" s="64">
-        <v>4.6533333333333333</v>
+        <f t="shared" si="38"/>
+        <v>8.1199999999999992</v>
       </c>
       <c r="L163" s="49">
-        <v>5.4766666666666666</v>
+        <f t="shared" si="39"/>
+        <v>12.406666666666666</v>
       </c>
     </row>
     <row r="164" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D164" s="72" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E164" s="68">
-        <v>2.4233333333333333</v>
+        <f t="shared" si="32"/>
+        <v>8.4033333333333342</v>
       </c>
       <c r="F164" s="64">
-        <v>1.3133333333333332</v>
+        <f t="shared" si="33"/>
+        <v>7.253333333333333</v>
       </c>
       <c r="G164" s="64">
-        <v>2.3366666666666669</v>
+        <f t="shared" si="34"/>
+        <v>7.8466666666666667</v>
       </c>
       <c r="H164" s="64">
-        <v>2.2033333333333331</v>
+        <f t="shared" si="35"/>
+        <v>9.2033333333333331</v>
       </c>
       <c r="I164" s="64">
-        <v>2.3166666666666664</v>
+        <f t="shared" si="36"/>
+        <v>7.37</v>
       </c>
       <c r="J164" s="64">
-        <v>2.36</v>
+        <f t="shared" si="37"/>
+        <v>8.2100000000000009</v>
       </c>
       <c r="K164" s="64">
-        <v>2.5900000000000003</v>
+        <f t="shared" si="38"/>
+        <v>9.1466666666666665</v>
       </c>
       <c r="L164" s="49">
-        <v>3.0433333333333334</v>
+        <f t="shared" si="39"/>
+        <v>8.9133333333333322</v>
       </c>
     </row>
     <row r="165" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D165" s="72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E165" s="68">
-        <v>2.2166666666666668</v>
+        <f t="shared" si="32"/>
+        <v>2.4233333333333333</v>
       </c>
       <c r="F165" s="64">
-        <v>2.3533333333333335</v>
+        <f t="shared" si="33"/>
+        <v>1.3133333333333332</v>
       </c>
       <c r="G165" s="64">
-        <v>1.7899999999999998</v>
+        <f t="shared" si="34"/>
+        <v>2.3366666666666669</v>
       </c>
       <c r="H165" s="64">
-        <v>2.16</v>
+        <f t="shared" si="35"/>
+        <v>2.2033333333333331</v>
       </c>
       <c r="I165" s="64">
-        <v>2.3566666666666669</v>
+        <f t="shared" si="36"/>
+        <v>2.3166666666666664</v>
       </c>
       <c r="J165" s="64">
-        <v>2.9866666666666668</v>
+        <f t="shared" si="37"/>
+        <v>2.36</v>
       </c>
       <c r="K165" s="64">
-        <v>2.7066666666666666</v>
+        <f t="shared" si="38"/>
+        <v>2.5900000000000003</v>
       </c>
       <c r="L165" s="49">
-        <v>3.6233333333333331</v>
+        <f t="shared" si="39"/>
+        <v>3.0433333333333334</v>
       </c>
     </row>
     <row r="166" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D166" s="72" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E166" s="68">
-        <v>103.77666666666666</v>
+        <f t="shared" si="32"/>
+        <v>12.079999999999998</v>
       </c>
       <c r="F166" s="64">
-        <v>107.98</v>
+        <f t="shared" si="33"/>
+        <v>14.21</v>
       </c>
       <c r="G166" s="64">
-        <v>104.46</v>
+        <f t="shared" si="34"/>
+        <v>19</v>
       </c>
       <c r="H166" s="64">
-        <v>102.30333333333333</v>
+        <f t="shared" si="35"/>
+        <v>22.8</v>
       </c>
       <c r="I166" s="64">
-        <v>108.69</v>
+        <f t="shared" si="36"/>
+        <v>35.276666666666664</v>
       </c>
       <c r="J166" s="64">
-        <v>118.69666666666667</v>
+        <f t="shared" si="37"/>
+        <v>57.843333333333334</v>
       </c>
       <c r="K166" s="64">
-        <v>121.38333333333334</v>
+        <f t="shared" si="38"/>
+        <v>44.65</v>
       </c>
       <c r="L166" s="49">
-        <v>133.55000000000001</v>
+        <f t="shared" si="39"/>
+        <v>60.263333333333328</v>
       </c>
     </row>
     <row r="167" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D167" s="72" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E167" s="68">
-        <v>8.31</v>
+        <f t="shared" si="32"/>
+        <v>2.2166666666666668</v>
       </c>
       <c r="F167" s="64">
-        <v>8.1766666666666676</v>
+        <f t="shared" si="33"/>
+        <v>2.3533333333333335</v>
       </c>
       <c r="G167" s="64">
-        <v>7.9799999999999995</v>
+        <f t="shared" si="34"/>
+        <v>1.7899999999999998</v>
       </c>
       <c r="H167" s="64">
-        <v>9.5199999999999978</v>
+        <f t="shared" si="35"/>
+        <v>2.16</v>
       </c>
       <c r="I167" s="64">
-        <v>10.753333333333332</v>
+        <f t="shared" si="36"/>
+        <v>2.3566666666666669</v>
       </c>
       <c r="J167" s="64">
-        <v>14.123333333333335</v>
+        <f t="shared" si="37"/>
+        <v>2.9866666666666668</v>
       </c>
       <c r="K167" s="64">
-        <v>17.596666666666668</v>
+        <f t="shared" si="38"/>
+        <v>2.7066666666666666</v>
       </c>
       <c r="L167" s="49">
-        <v>22.2</v>
+        <f t="shared" si="39"/>
+        <v>3.6233333333333331</v>
       </c>
     </row>
     <row r="168" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D168" s="72" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E168" s="68">
-        <v>8.4033333333333342</v>
+        <f t="shared" si="32"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="F168" s="64">
-        <v>7.253333333333333</v>
+        <f t="shared" si="33"/>
+        <v>0.26</v>
       </c>
       <c r="G168" s="64">
-        <v>7.8466666666666667</v>
+        <f t="shared" si="34"/>
+        <v>0.22</v>
       </c>
       <c r="H168" s="64">
-        <v>9.2033333333333331</v>
+        <f t="shared" si="35"/>
+        <v>0.22333333333333336</v>
       </c>
       <c r="I168" s="64">
-        <v>7.37</v>
+        <f t="shared" si="36"/>
+        <v>0.3066666666666667</v>
       </c>
       <c r="J168" s="64">
-        <v>8.2100000000000009</v>
+        <f t="shared" si="37"/>
+        <v>0.31666666666666671</v>
       </c>
       <c r="K168" s="64">
-        <v>9.1466666666666665</v>
+        <f t="shared" si="38"/>
+        <v>0.2233333333333333</v>
       </c>
       <c r="L168" s="49">
-        <v>8.9133333333333322</v>
+        <f t="shared" si="39"/>
+        <v>0.3133333333333333</v>
       </c>
     </row>
     <row r="169" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19461,36 +19668,36 @@
         <v>32</v>
       </c>
       <c r="E169" s="69">
-        <f>SUM(E156:E165)</f>
-        <v>798.74333333333323</v>
-      </c>
-      <c r="F169" s="62">
-        <f>SUM(F156:F165)</f>
-        <v>833.12333333333356</v>
-      </c>
-      <c r="G169" s="62">
-        <f>SUM(G156:G165)</f>
-        <v>936.35666666666691</v>
-      </c>
-      <c r="H169" s="62">
-        <f>SUM(H156:H165)</f>
-        <v>1001.2933333333332</v>
-      </c>
-      <c r="I169" s="62">
-        <f>SUM(I156:I165)</f>
-        <v>1483.9266666666663</v>
-      </c>
-      <c r="J169" s="62">
-        <f>SUM(J156:J165)</f>
-        <v>2266.9066666666658</v>
-      </c>
-      <c r="K169" s="62">
-        <f>SUM(K156:K165)</f>
-        <v>3227.3300000000004</v>
-      </c>
-      <c r="L169" s="63">
-        <f>SUM(L156:L165)</f>
-        <v>5208.8499999999995</v>
+        <f>SUM(E156:E168)</f>
+        <v>919.23333333333323</v>
+      </c>
+      <c r="F169" s="69">
+        <f>SUM(F156:F168)</f>
+        <v>956.53333333333353</v>
+      </c>
+      <c r="G169" s="69">
+        <f>SUM(G156:G168)</f>
+        <v>1056.6433333333334</v>
+      </c>
+      <c r="H169" s="69">
+        <f>SUM(H156:H168)</f>
+        <v>1122.3200000000002</v>
+      </c>
+      <c r="I169" s="69">
+        <f>SUM(I156:I168)</f>
+        <v>1610.7399999999996</v>
+      </c>
+      <c r="J169" s="69">
+        <f>SUM(J156:J168)</f>
+        <v>2407.936666666666</v>
+      </c>
+      <c r="K169" s="69">
+        <f>SUM(K156:K168)</f>
+        <v>3375.4566666666669</v>
+      </c>
+      <c r="L169" s="69">
+        <f>SUM(L156:L168)</f>
+        <v>5373.5133333333324</v>
       </c>
     </row>
     <row r="170" spans="4:19" x14ac:dyDescent="0.25">
@@ -19498,36 +19705,36 @@
         <v>33</v>
       </c>
       <c r="E170" s="61">
-        <f t="shared" ref="E170:L170" si="32">E169/1000</f>
-        <v>0.79874333333333325</v>
+        <f t="shared" ref="E170:L170" si="40">E169/1000</f>
+        <v>0.91923333333333324</v>
       </c>
       <c r="F170" s="61">
-        <f t="shared" si="32"/>
-        <v>0.83312333333333355</v>
+        <f t="shared" si="40"/>
+        <v>0.95653333333333357</v>
       </c>
       <c r="G170" s="61">
-        <f t="shared" si="32"/>
-        <v>0.93635666666666695</v>
+        <f t="shared" si="40"/>
+        <v>1.0566433333333334</v>
       </c>
       <c r="H170" s="61">
-        <f t="shared" si="32"/>
-        <v>1.0012933333333331</v>
+        <f t="shared" si="40"/>
+        <v>1.1223200000000002</v>
       </c>
       <c r="I170" s="61">
-        <f t="shared" si="32"/>
-        <v>1.4839266666666662</v>
+        <f t="shared" si="40"/>
+        <v>1.6107399999999996</v>
       </c>
       <c r="J170" s="61">
-        <f t="shared" si="32"/>
-        <v>2.266906666666666</v>
+        <f t="shared" si="40"/>
+        <v>2.4079366666666662</v>
       </c>
       <c r="K170" s="61">
-        <f t="shared" si="32"/>
-        <v>3.2273300000000003</v>
+        <f t="shared" si="40"/>
+        <v>3.375456666666667</v>
       </c>
       <c r="L170" s="61">
-        <f t="shared" si="32"/>
-        <v>5.2088499999999991</v>
+        <f t="shared" si="40"/>
+        <v>5.3735133333333325</v>
       </c>
     </row>
     <row r="171" spans="4:19" x14ac:dyDescent="0.25">
@@ -19535,36 +19742,36 @@
         <v>34</v>
       </c>
       <c r="E171" s="61">
-        <f t="shared" ref="E171:L171" si="33">E170/60</f>
-        <v>1.3312388888888887E-2</v>
+        <f t="shared" ref="E171:L171" si="41">E170/60</f>
+        <v>1.5320555555555554E-2</v>
       </c>
       <c r="F171" s="61">
-        <f t="shared" si="33"/>
-        <v>1.3885388888888893E-2</v>
+        <f t="shared" si="41"/>
+        <v>1.5942222222222226E-2</v>
       </c>
       <c r="G171" s="61">
-        <f t="shared" si="33"/>
-        <v>1.5605944444444448E-2</v>
+        <f t="shared" si="41"/>
+        <v>1.7610722222222222E-2</v>
       </c>
       <c r="H171" s="61">
-        <f t="shared" si="33"/>
-        <v>1.6688222222222219E-2</v>
+        <f t="shared" si="41"/>
+        <v>1.8705333333333338E-2</v>
       </c>
       <c r="I171" s="61">
-        <f t="shared" si="33"/>
-        <v>2.4732111111111104E-2</v>
+        <f t="shared" si="41"/>
+        <v>2.684566666666666E-2</v>
       </c>
       <c r="J171" s="61">
-        <f t="shared" si="33"/>
-        <v>3.7781777777777768E-2</v>
+        <f t="shared" si="41"/>
+        <v>4.0132277777777767E-2</v>
       </c>
       <c r="K171" s="61">
-        <f t="shared" si="33"/>
-        <v>5.3788833333333334E-2</v>
+        <f t="shared" si="41"/>
+        <v>5.6257611111111119E-2</v>
       </c>
       <c r="L171" s="61">
-        <f t="shared" si="33"/>
-        <v>8.6814166666666651E-2</v>
+        <f t="shared" si="41"/>
+        <v>8.9558555555555544E-2</v>
       </c>
     </row>
     <row r="173" spans="4:19" x14ac:dyDescent="0.25">
@@ -19864,14 +20071,14 @@
     </row>
     <row r="207" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D207" s="2"/>
-      <c r="E207" s="105"/>
-      <c r="F207" s="105"/>
-      <c r="G207" s="105"/>
-      <c r="H207" s="105"/>
-      <c r="I207" s="105"/>
-      <c r="J207" s="105"/>
-      <c r="K207" s="105"/>
-      <c r="L207" s="105"/>
+      <c r="E207" s="101"/>
+      <c r="F207" s="101"/>
+      <c r="G207" s="101"/>
+      <c r="H207" s="101"/>
+      <c r="I207" s="101"/>
+      <c r="J207" s="101"/>
+      <c r="K207" s="101"/>
+      <c r="L207" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/performance-assessment/CPU-GPU_Performance_Comparison.xlsx
+++ b/performance-assessment/CPU-GPU_Performance_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\work-dominoes\prov-dominoes\performance-assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661373-260F-4ED6-93C9-DF91CA56605F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1BEFE1-3FC4-4C2B-8322-D91F6B69170C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{3D0E3E5A-E345-494B-B986-4F0B6756AB5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3D0E3E5A-E345-494B-B986-4F0B6756AB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -11210,8 +11210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB247DE-C31B-4E8D-AD84-B87C7CD93577}">
   <dimension ref="D2:S181"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15585,7 +15585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF54308-B881-43FE-A421-CF508D0E35E7}">
   <dimension ref="D2:S207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A199" workbookViewId="0">
       <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
